--- a/List Kebutuhan.xlsx
+++ b/List Kebutuhan.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Tugas Analisa Sistem</t>
   </si>
@@ -31,46 +31,175 @@
     <t>Kebutuhan Non-fungsional</t>
   </si>
   <si>
-    <t>cth</t>
-  </si>
-  <si>
     <t>Mempermudah proses pembelajaran untuk pelajar dan pengajar</t>
   </si>
   <si>
-    <t>1. Pengguna dapat mendaftarkan akun baru</t>
-  </si>
-  <si>
-    <t>Operasional (berjalan di semua browser)</t>
-  </si>
-  <si>
-    <t>2. Pengguna yang telah terdaftar dapat melihat, mengubah, atau menghapus data akun pengguna</t>
-  </si>
-  <si>
-    <t>Operasional, keamanan (diakses sesuai hak akses)</t>
-  </si>
-  <si>
-    <t>3. Pelajar dapat mengakses kelas yang tersedia</t>
-  </si>
-  <si>
-    <t>Operasional, Performa (diakses oleh ratusan ribu pengguna), efisiensi (penyimpanan data)</t>
-  </si>
-  <si>
-    <t>4. Pengajar dapat memanage kelas</t>
-  </si>
-  <si>
-    <t>Operasional, Performa, keamanan</t>
-  </si>
-  <si>
-    <t>5. Pengguna dapat melakukan aktivitas penugasan</t>
-  </si>
-  <si>
-    <t>Operasional, performa (bisa dilihat 2 detik setelah dipilih)</t>
-  </si>
-  <si>
-    <t>6. Pengguna dapat melakukan aktifivas kelas</t>
-  </si>
-  <si>
-    <t>Operasional,Keamanan (1 pengguna hanya 1 account)</t>
+    <t>1. Pengajar dapat mengatur kelas</t>
+  </si>
+  <si>
+    <t>F.1.1 Pengajar dapat mengatur jadwal pertemuan di kelas</t>
+  </si>
+  <si>
+    <t>Operasional, keamanan (hanya dapat dilakukan oleh pengajar)</t>
+  </si>
+  <si>
+    <t>F.1.2 Pengajar dapat melihat siapa saja yang mengikuti kelasnya</t>
+  </si>
+  <si>
+    <t>F.1.3 Pengajar dapat menambahkan pelajar di kelasnya</t>
+  </si>
+  <si>
+    <t>F.1.4 Pengajar dapat menghapus pelajar dari kelasnya</t>
+  </si>
+  <si>
+    <t>F.1.4 Pengajar dapat menggunakan video conference sebagai pertemuan di kelasnya</t>
+  </si>
+  <si>
+    <t>Operasional, keamanan (hanya dapat bisa diakses oleh pengajar), reabilitas(video yang di stream stabil)</t>
+  </si>
+  <si>
+    <t>F.1.5 Pengajar dapat melihat pertanyaan yang diajukan oleh pelajar saat video conference</t>
+  </si>
+  <si>
+    <t>F.1.6 Pengajar dapat melihat peserta yang tergabung dalam video conference</t>
+  </si>
+  <si>
+    <t>F.1.7 Pengajar dapat mengeluarkan peserta dari pertemuan</t>
+  </si>
+  <si>
+    <t>F.1.8 Pengajar dapat merubah detail dari kelasnya</t>
+  </si>
+  <si>
+    <t>F.1.9 Pengajar dapat memiliki lebih dari satu kelas</t>
+  </si>
+  <si>
+    <t>F.1.10 Pengajar dapat melakukan absen untuk tiap pertemuan</t>
+  </si>
+  <si>
+    <t>2. Pelajar dapat mengikuti kelas</t>
+  </si>
+  <si>
+    <t>F.2.1 Pelajar dapat mengikuti lebih dari satu kelas</t>
+  </si>
+  <si>
+    <t>Operasional (Dapat diakses dimana saja)</t>
+  </si>
+  <si>
+    <t>F.2.1 Pelajar dapat melihat jadwal pertemuan yang ada pada kelasnya</t>
+  </si>
+  <si>
+    <t>F.2.2 Pelajar dapat melihat informasi mengenai kelas yang diikutinya</t>
+  </si>
+  <si>
+    <t>F.2.3 Pelajar dapat mengikuti video conference yang sudah ditentukan oleh pengajar kelasnya</t>
+  </si>
+  <si>
+    <t>Operasional (Dapat diakses dimana saja), Reabilitas (video yang di stream stabil)</t>
+  </si>
+  <si>
+    <t>F.2.4 Pelajar dapat mengajukan pertanyaan pada pertemuan</t>
+  </si>
+  <si>
+    <t>F.2.5 Pelajar diberikan notifikasi jika ada pertemuan yang dibuat oleh pengajar</t>
+  </si>
+  <si>
+    <t>3. Pengajar dapat melakukan manajemen tugas</t>
+  </si>
+  <si>
+    <t>F.3.1 Pengajar dapat menambahkan detail tugas</t>
+  </si>
+  <si>
+    <t>F.3.2 Pengajar dapat menghapus detail tugas</t>
+  </si>
+  <si>
+    <t>F.3.3 Pengajar dapat mengedit detail tugas</t>
+  </si>
+  <si>
+    <t>F.3.4 Pengajar dapat menentukan batas waktu pengumpulan tugas</t>
+  </si>
+  <si>
+    <t>F.3.5 Pengajar dapat melihat tugas yang dikumpulkan oleh pelajar</t>
+  </si>
+  <si>
+    <t>F.3.6 Pengajar dapat memberikan nilai untuk tugas yang dikumpulkan oleh pelajar</t>
+  </si>
+  <si>
+    <t>F.3.7 Pengajar dapat melihat komentar yang ditinggalkan pada tugas tersebut</t>
+  </si>
+  <si>
+    <t>F.3.8 Pengajar dapat menjawab komentar yang ditinggalkan pada tugas tersebut</t>
+  </si>
+  <si>
+    <t>4. Pengajar dapat mengerjakan tugas</t>
+  </si>
+  <si>
+    <t>F.4.1 Pelajar dapat melihat tugas yang dibuat oleh pengajar</t>
+  </si>
+  <si>
+    <t>F.4.2 Pelajar dapat mengumpulkan tugas pada pengumpulan tugas</t>
+  </si>
+  <si>
+    <t>F.4.3 Pelajar dapat meninggalkan komentar pada tugas</t>
+  </si>
+  <si>
+    <t>F.4.4 Pelajar diberikan notifikasi jika deadline tugas sudah dekat</t>
+  </si>
+  <si>
+    <t>F.4.5 Pelajar diberikan notifikasi jika ada tugas baru</t>
+  </si>
+  <si>
+    <t>5. Pengajar dapat mengelola ujian</t>
+  </si>
+  <si>
+    <t>F.5.1 Pengajar dapat membuat ujian baru</t>
+  </si>
+  <si>
+    <t>Operasional, keamanan (hanya pengajar yang memiliki hak akses)</t>
+  </si>
+  <si>
+    <t>F.5.2 Pengajar dapat menambahkan soal pada ujian baru</t>
+  </si>
+  <si>
+    <t>F.5.3 Pengajar dapat merubah detail dari ujian</t>
+  </si>
+  <si>
+    <t>F.5.4 Pengajar dapat melihat siapa saja yang mengerjakan ujian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.5.5 Pengajar dapat melihat nilai dari pelajar </t>
+  </si>
+  <si>
+    <t>6. Pelajar dapat mengikuti ujian</t>
+  </si>
+  <si>
+    <t>F.6.1  Pelajar diberikan notifikasi jika ada ujian baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operasional, reliabilitas </t>
+  </si>
+  <si>
+    <t>F.6.2 Pelajar dapat mengerjakan ujian sesuai waktu yang ditentukan</t>
+  </si>
+  <si>
+    <t>F.6.3 Pelajar dapat melihat hasil dari ujiannya sendiri</t>
+  </si>
+  <si>
+    <t>7. User dapat melakukan diskusi dengan user lain</t>
+  </si>
+  <si>
+    <t>F.7.1 User dapat membuat thread baru pada forum diskusi kelas</t>
+  </si>
+  <si>
+    <t>F.7.2 User dapat melihat semua thread yang ada pada forum diskusi kelas</t>
+  </si>
+  <si>
+    <t>F.7.3 User dapat meninggalkan pesan pada thread yang ada pada forum diskusi kelas</t>
+  </si>
+  <si>
+    <t>F.7.4 User dapat menfollow thread yang dipilih</t>
+  </si>
+  <si>
+    <t>F.7.5 User diberikan notifikasi jika ada pesan baru pada thread yang di follow</t>
   </si>
 </sst>
 </file>
@@ -187,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -205,29 +334,38 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -479,189 +617,407 @@
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>17</v>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9"/>
+      <c r="B29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="9"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="9"/>
+      <c r="B34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="9"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="9"/>
+      <c r="B39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="9"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="9"/>
+      <c r="B42" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
+  <mergeCells count="20">
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B39:B41"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:A22"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A4:A46"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/List Kebutuhan.xlsx
+++ b/List Kebutuhan.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Tugas Analisa Sistem</t>
   </si>
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -349,12 +349,6 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -362,9 +356,6 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,7 +839,9 @@
       <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="9"/>
@@ -872,7 +865,7 @@
       <c r="C32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="9"/>
@@ -880,7 +873,7 @@
       <c r="C33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34">
       <c r="A34" s="9"/>
@@ -890,7 +883,7 @@
       <c r="C34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -934,7 +927,7 @@
       <c r="C39" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -956,59 +949,62 @@
     </row>
     <row r="42">
       <c r="A42" s="9"/>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D29:D32"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D21:D26"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D42:D46"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="D34:D38"/>
